--- a/scrap/en_proceso_actual.xlsx
+++ b/scrap/en_proceso_actual.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ant/Library/CloudStorage/Dropbox/2 actions/Personales/Data AlterBiblio/Nefrología/Editorial manager/scrap/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055EF55-1202-4E49-91FF-B0EEDE0D7611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="11920" windowWidth="23800" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1443,8 +1462,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,12 +1480,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1484,9 +1509,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1496,18 +1519,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA100643-0544-4047-AD81-2A599FE8FD0C}" name="Table1" displayName="Table1" ref="A1:S70" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:S70" xr:uid="{BA100643-0544-4047-AD81-2A599FE8FD0C}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{7CC1C508-4091-3F41-959C-805976477747}" name="numero_manuscrito"/>
+    <tableColumn id="2" xr3:uid="{C7DB5764-3F4A-C540-A649-D5327E35076D}" name="tipo_articulo"/>
+    <tableColumn id="3" xr3:uid="{0368F34A-6806-AC4A-AE84-EB5B0F15DACB}" name="titulo"/>
+    <tableColumn id="4" xr3:uid="{EF0D4042-A383-6841-8F2B-842CE4A401ED}" name="autor"/>
+    <tableColumn id="5" xr3:uid="{6C133F55-6EB3-C749-A80F-BFF0B9F3E2E5}" name="fecha_inicial"/>
+    <tableColumn id="6" xr3:uid="{C884C71C-8800-3648-9D34-581BE9BD0915}" name="fecha_estado"/>
+    <tableColumn id="7" xr3:uid="{C0802991-C5B8-5F42-8EBA-55FFF3C872D2}" name="estado_actual"/>
+    <tableColumn id="8" xr3:uid="{E2B471A8-3325-D74A-BBE4-8898F5BFFD92}" name="editor"/>
+    <tableColumn id="9" xr3:uid="{823E99CD-00AD-E045-9057-749AC7543FBA}" name="decision_editor"/>
+    <tableColumn id="10" xr3:uid="{A9CB451C-5D75-774A-8465-A4697F8261D6}" name="est_ev_completo"/>
+    <tableColumn id="11" xr3:uid="{5E4A5212-F675-CB4B-AD3B-64C7709B6ED4}" name="est_ev_aceptado"/>
+    <tableColumn id="12" xr3:uid="{7892C12C-ED04-DD4A-9EDA-F6CEBAAFECF8}" name="est_ev_invitado"/>
+    <tableColumn id="13" xr3:uid="{55757824-B316-FC44-B25E-5191EBC14790}" name="est_ev_rechazado"/>
+    <tableColumn id="14" xr3:uid="{6C549E79-DD15-494A-AE44-DD619FAF25B7}" name="est_ev_tarde"/>
+    <tableColumn id="15" xr3:uid="{AD6D9790-DA41-4D47-9627-B2DFC6411F55}" name="data_identity"/>
+    <tableColumn id="16" xr3:uid="{4932A9E1-B302-DA41-8DCF-420EA020AD8C}" name="email"/>
+    <tableColumn id="17" xr3:uid="{981C8DCE-B9FC-F44E-B6B2-24FF1DFD3DDA}" name="fecha_vencimiento"/>
+    <tableColumn id="18" xr3:uid="{64837F3D-DB19-DA47-A774-0DCBB4FD4D1F}" name="fecha_alta"/>
+    <tableColumn id="19" xr3:uid="{5C4E9011-40E5-6D40-BB41-578748F5B912}" name="fecha_baja"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,7 +1669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1585,9 +1701,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,6 +1753,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1794,14 +1946,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="154.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,8 +2033,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -1904,8 +2077,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -1948,7 +2121,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1992,7 +2165,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +2209,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2080,7 +2253,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +2297,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2341,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2212,7 +2385,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2429,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2473,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2344,7 +2517,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2388,7 +2561,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2605,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2476,7 +2649,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2520,7 +2693,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2737,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2608,7 +2781,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2652,7 +2825,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2696,7 +2869,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2740,7 +2913,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2787,7 +2960,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2834,7 +3007,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2881,7 +3054,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2928,7 +3101,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +3145,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3019,7 +3192,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3066,7 +3239,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3113,7 +3286,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3160,7 +3333,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3195,7 +3368,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3230,7 +3403,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3265,7 +3438,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3300,7 +3473,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3335,8 +3508,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
@@ -3370,8 +3543,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B37" t="s">
@@ -3405,7 +3578,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3440,7 +3613,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3475,7 +3648,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3510,7 +3683,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3545,7 +3718,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3580,7 +3753,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3615,7 +3788,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3650,7 +3823,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3685,7 +3858,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3720,7 +3893,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3755,7 +3928,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3790,7 +3963,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3825,7 +3998,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3860,7 +4033,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3895,7 +4068,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3930,7 +4103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3965,7 +4138,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -4000,7 +4173,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4208,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -4070,7 +4243,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -4105,7 +4278,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -4140,7 +4313,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -4175,7 +4348,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -4210,7 +4383,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -4245,7 +4418,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -4280,7 +4453,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -4315,7 +4488,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -4350,7 +4523,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4385,7 +4558,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -4420,7 +4593,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -4455,7 +4628,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -4490,7 +4663,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -4525,7 +4698,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -4562,5 +4735,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>